--- a/Data/export.xlsx
+++ b/Data/export.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA45CC6-9187-9840-9AA4-6BAB2CD34AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFF986-2203-0C4F-B34D-0D54FBCDE73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{558D3F9C-B4DB-3B46-A298-3654189EF0E1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{558D3F9C-B4DB-3B46-A298-3654189EF0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="ihracat" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Import ($)</t>
+    <t>Export</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39B3DBA-8E4B-C74B-A222-F83637F76FAD}">
   <dimension ref="A1:C657"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
